--- a/results.xlsx
+++ b/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xun/Documents/Thesis/Improving-RNN-recommendation-model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xun/Documents/Thesis/RNN-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2103B7-CADC-434F-9176-1437F59CD5CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3431E8C9-A8C8-E24C-BAFE-4F8ED45B976E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8760" yWindow="460" windowWidth="20040" windowHeight="17540" xr2:uid="{505057AF-B8E6-D84E-A8CA-9BC8AB4E4F67}"/>
   </bookViews>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276B1B28-BDD9-9E4A-A239-BBD3C1D0DE6B}">
   <dimension ref="A1:K343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175:XFD175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
